--- a/files/separadas/repeat_p24_5.xlsx
+++ b/files/separadas/repeat_p24_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>p24_5_nom</t>
   </si>
@@ -74,18 +74,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>Taller de innovacion</t>
@@ -558,13 +546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,40 +613,28 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -667,48 +643,36 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L3">
         <v>24</v>
@@ -717,48 +681,36 @@
         <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O3" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L4">
         <v>30</v>
@@ -767,48 +719,36 @@
         <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O4" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L5">
         <v>33</v>
@@ -817,48 +757,36 @@
         <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O5" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L6">
         <v>33</v>
@@ -867,48 +795,36 @@
         <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O6" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R6" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L7">
         <v>37</v>
@@ -917,48 +833,36 @@
         <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O7" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="R7" t="s">
-        <v>59</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L8">
         <v>65</v>
@@ -967,25 +871,13 @@
         <v>111</v>
       </c>
       <c r="N8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O8" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="R8" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_5.xlsx
+++ b/files/separadas/repeat_p24_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>p24_5_nom</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>Taller de innovacion</t>
@@ -546,13 +549,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,28 +616,31 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -643,36 +649,39 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3">
         <v>24</v>
@@ -681,36 +690,39 @@
         <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O3" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4">
         <v>30</v>
@@ -719,36 +731,39 @@
         <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5">
         <v>33</v>
@@ -757,36 +772,39 @@
         <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6">
         <v>33</v>
@@ -795,36 +813,39 @@
         <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R6" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7">
         <v>37</v>
@@ -833,36 +854,39 @@
         <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O7" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="R7" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8">
         <v>65</v>
@@ -871,13 +895,16 @@
         <v>111</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O8" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_5.xlsx
+++ b/files/separadas/repeat_p24_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>p24_5_nom</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -549,13 +552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,28 +622,31 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -649,39 +655,42 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="R2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L3">
         <v>24</v>
@@ -690,39 +699,42 @@
         <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4">
         <v>30</v>
@@ -731,39 +743,42 @@
         <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5">
         <v>33</v>
@@ -772,39 +787,42 @@
         <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O5" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L6">
         <v>33</v>
@@ -813,39 +831,42 @@
         <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O6" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7">
         <v>37</v>
@@ -854,39 +875,42 @@
         <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O7" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="R7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8">
         <v>64</v>
@@ -895,15 +919,18 @@
         <v>111</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O8" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="R8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p24_5.xlsx
+++ b/files/separadas/repeat_p24_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>p24_5_nom</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -552,13 +555,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,28 +628,31 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -655,13 +661,13 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -669,28 +675,31 @@
       <c r="V2">
         <v>0</v>
       </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3">
         <v>24</v>
@@ -699,13 +708,13 @@
         <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -713,28 +722,31 @@
       <c r="V3">
         <v>0</v>
       </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4">
         <v>30</v>
@@ -743,13 +755,13 @@
         <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O4" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -757,28 +769,31 @@
       <c r="V4">
         <v>0</v>
       </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5">
         <v>33</v>
@@ -787,13 +802,13 @@
         <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O5" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -801,28 +816,31 @@
       <c r="V5">
         <v>0</v>
       </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6">
         <v>33</v>
@@ -831,13 +849,13 @@
         <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -845,28 +863,31 @@
       <c r="V6">
         <v>0</v>
       </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L7">
         <v>37</v>
@@ -875,13 +896,13 @@
         <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O7" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -889,28 +910,31 @@
       <c r="V7">
         <v>0</v>
       </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8">
         <v>64</v>
@@ -919,18 +943,21 @@
         <v>111</v>
       </c>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O8" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="R8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p24_5.xlsx
+++ b/files/separadas/repeat_p24_5.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\separadas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268EA79F-D6BD-4CDE-8C5B-F88C5C3D8E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="4290" windowWidth="38400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>p24_5_nom</t>
   </si>
@@ -74,12 +80,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -199,11 +199,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,13 +267,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -311,7 +319,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -345,6 +353,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -379,9 +388,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -554,14 +564,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,34 +637,28 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -661,45 +667,39 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2">
-        <v>44998.82651620371</v>
+        <v>44998.826516203713</v>
       </c>
       <c r="R2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L3">
         <v>24</v>
@@ -708,45 +708,39 @@
         <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O3" s="2">
-        <v>45033.69763888889</v>
+        <v>45033.697638888887</v>
       </c>
       <c r="R3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L4">
         <v>30</v>
@@ -755,45 +749,39 @@
         <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O4" s="2">
-        <v>45034.90506944444</v>
+        <v>45034.905069444438</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L5">
         <v>33</v>
@@ -802,45 +790,39 @@
         <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O5" s="2">
-        <v>45035.70458333333</v>
+        <v>45035.704583333332</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L6">
         <v>33</v>
@@ -849,45 +831,39 @@
         <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O6" s="2">
-        <v>45035.70458333333</v>
+        <v>45035.704583333332</v>
       </c>
       <c r="R6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L7">
         <v>37</v>
@@ -896,45 +872,39 @@
         <v>78</v>
       </c>
       <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="2">
+        <v>45041.153495370367</v>
+      </c>
+      <c r="R7" t="s">
         <v>56</v>
-      </c>
-      <c r="O7" s="2">
-        <v>45041.15349537037</v>
-      </c>
-      <c r="R7" t="s">
-        <v>58</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L8">
         <v>64</v>
@@ -943,21 +913,15 @@
         <v>111</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O8" s="2">
-        <v>45045.67958333333</v>
+        <v>45045.679583333331</v>
       </c>
       <c r="R8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
         <v>0</v>
       </c>
     </row>
